--- a/Test/MultiPSO/Explore100Exploit200/ALLCONError_150.xlsx
+++ b/Test/MultiPSO/Explore100Exploit200/ALLCONError_150.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.002377930511608037</v>
+        <v>0.0001294870250525458</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0007841958902315527</v>
+        <v>0.001576699067305101</v>
       </c>
       <c r="C1" t="n">
-        <v>0.001593148986529047</v>
+        <v>0.0003639538236011844</v>
       </c>
       <c r="D1" t="n">
-        <v>0.001997346845801439</v>
+        <v>0.000844783907030759</v>
       </c>
       <c r="E1" t="n">
-        <v>0.002119753469931982</v>
+        <v>0.0005117612967475633</v>
       </c>
       <c r="F1" t="n">
-        <v>0.0001880633572320953</v>
+        <v>0.0003479491143175704</v>
       </c>
       <c r="G1" t="n">
-        <v>0.002335761667566142</v>
+        <v>0.0005938047474177932</v>
       </c>
       <c r="H1" t="n">
-        <v>0.00295954661323772</v>
+        <v>0.001012937706954432</v>
       </c>
       <c r="I1" t="n">
-        <v>0.0009259410341630656</v>
+        <v>8.074657261476186e-05</v>
       </c>
       <c r="J1" t="n">
-        <v>0.006959768434380186</v>
+        <v>0.0008012978931518897</v>
       </c>
     </row>
   </sheetData>
